--- a/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -4982,7 +4982,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>93</v>
@@ -6546,7 +6546,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>93</v>
@@ -11846,7 +11846,7 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>93</v>

--- a/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -4982,7 +4982,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>93</v>
@@ -6546,7 +6546,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>93</v>
@@ -11846,7 +11846,7 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>93</v>
